--- a/data/Map106.xlsx
+++ b/data/Map106.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>&lt;Darkness:250&gt;</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>ロープ</t>
+  </si>
+  <si>
+    <t>Rope</t>
   </si>
   <si>
     <t>ロープ・・・！
@@ -596,7 +599,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,344 +607,347 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map106.xlsx
+++ b/data/Map106.xlsx
@@ -599,7 +599,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,222 +607,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -830,122 +836,128 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>68</v>
       </c>

--- a/data/Map106.xlsx
+++ b/data/Map106.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>&lt;Darkness:250&gt;</t>
   </si>
@@ -34,6 +34,16 @@
   <si>
     <t>燭台だ。
 固定されて動かせないが灯りに使えるかもしれない。</t>
+  </si>
+  <si>
+    <t>変数203（ARGP攻撃種類）
+1斬　2打撃　3水　4火　5雷
+6誘惑　7食べ物
+特殊206（個別攻撃種類）
+1リンゴ　2皿　3卵</t>
+  </si>
+  <si>
+    <t>灯り 6 1 200 0.1</t>
   </si>
   <si>
     <t>捕まえリリー</t>
@@ -76,6 +86,9 @@
   </si>
   <si>
     <t>ビン踏みシィナ</t>
+  </si>
+  <si>
+    <t>灯り 2 1 120 0.1</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;追い込んだにゃ♥
@@ -599,7 +612,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,359 +620,563 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="D62" t="s">
+      <c r="B62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="D64" t="s">
+      <c r="B64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map106.xlsx
+++ b/data/Map106.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4537095B-4E1E-4CF8-B188-97085C4D6687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>&lt;Darkness:250&gt;</t>
   </si>
@@ -275,18 +281,178 @@
   <si>
     <t>炎系の攻撃で燭台に火を着けてください。</t>
   </si>
+  <si>
+    <t>A candlestick. It is fixed in place, and won't move.
+It can be used to illuminate your surroundings.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Cowabunga, nya!
+Ambush successful, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're not getting away now, nyaa♥
+Sluuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You want me to squeeze you dry, nya?
+Guess I've got no choice, nyaa…</t>
+  </si>
+  <si>
+    <t>You stepped on a broken bottle…!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hmm?
+I see. So that's where you're hiding, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;It's a dead end♥
+There's nowhere to run, nya.
+Hoora. Time to eat, nyaan♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Got you cornered now, nya♥
+I gotchaaa♥</t>
+  </si>
+  <si>
+    <t>You stepped in a puddle of water…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;It's me-!
+Ambush successful♪</t>
+  </si>
+  <si>
+    <t>You've stepped on a trap!!
+Your body has gone numb, and you can't move…!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Capture successful～♪
+That's what you get for stumbling around in the dark
+without checking where you place your feet. Dummy♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;The lights were on and everything.
+Couldn't you see the trap?
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You could totally see me.
+Did you come here to be squeezed dry?
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Omigod!! Something touched me!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;O-oh, it's you...
+A-ambush successful! Ohohohoho♥
+(I thought my heart was about to stop…)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Now, you're all mine♥
+There's no getting away now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ambush successful-♥
+Squirrrm-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;It was totally worth it hiding in the pitch black-♥
+Now there's no escape-♥
+Haaaah♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ahhh♥ You came to let me catch you♥
+Eheehee♥
+I think I get it-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;You were in the mood for a boob job, weren't you-.
+I totally get it-♥
+Hoora, look at that big dick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;...
+They never came, nyaa.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I figured they'd need the rope here in the warehouse,
+so we'd hide and wait them out.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Dammit...
+I feel like an idiot, holding my breath, sitting in the dark
+like this. Hurry up already.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaah!
+The rope is gone, nyaan!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;No way!
+How'd they manage that in the darkness?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A-amazing…!
+Th-they're so amazing!
+They tracked down the rope in pitch black…!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Really, that makes them amazing!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaa...
+Yeah, that's pretty amazing…</t>
+  </si>
+  <si>
+    <t>\n[1] learned \C[3]『Amazing』\C[0]!</t>
+  </si>
+  <si>
+    <t>Found some rope…!
+This will definitely come in handy somewhere…!</t>
+  </si>
+  <si>
+    <t>There's some kind of chest above,
+but it's too high up to reach…</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>There's something here, but it's too dark to see…</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Where did these orcs come from?</t>
+  </si>
+  <si>
+    <t>How to turn on the lights…</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>Light the candlesticks with a fire attack.</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Being Watched...</t>
+  </si>
+  <si>
+    <t>Don't look</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -297,28 +463,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -608,19 +786,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -636,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -644,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -652,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -660,25 +840,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -686,31 +869,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -718,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -726,23 +918,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -750,7 +948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -758,15 +956,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -774,20 +975,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -795,23 +999,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -819,39 +1029,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -859,39 +1081,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -899,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -907,79 +1141,106 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -987,15 +1248,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1003,31 +1267,40 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1035,7 +1308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1043,7 +1316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1051,63 +1324,84 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1115,7 +1409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1123,7 +1417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1131,7 +1425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1139,7 +1433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1147,50 +1441,52 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>